--- a/Subjects_List_fMRI.xlsx
+++ b/Subjects_List_fMRI.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE98A0D-A588-9041-B958-D9CF569C112A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915BF684-322D-4B47-8C58-7839D6B2062B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2260" yWindow="1640" windowWidth="24880" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -993,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1064,6 +1064,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1078,11 +1081,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,9 +1100,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1142,9 +1140,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1177,26 +1175,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1229,26 +1210,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1425,8 +1389,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2474,14 +2438,14 @@
         <v>138</v>
       </c>
       <c r="N22" s="8"/>
-      <c r="O22" s="30" t="s">
+      <c r="O22" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
       <c r="U22" s="28"/>
     </row>
     <row r="23" spans="1:21" ht="16">
@@ -3077,14 +3041,14 @@
         <v>155</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="30" t="s">
+      <c r="O35" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
       <c r="U35" s="29"/>
     </row>
     <row r="36" spans="1:21" ht="16">
@@ -3170,15 +3134,15 @@
       <c r="N37" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="O37" s="31" t="s">
+      <c r="O37" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="2" t="s">
@@ -3215,11 +3179,11 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="32" t="s">
+      <c r="Q38" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="R38" s="33"/>
-      <c r="S38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="35"/>
       <c r="T38" s="2" t="s">
         <v>201</v>
       </c>
@@ -3486,16 +3450,16 @@
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="2" t="s">
         <v>226</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -3507,7 +3471,7 @@
       <c r="G45" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="30" t="s">
         <v>215</v>
       </c>
       <c r="I45" s="20"/>
